--- a/xlsx/名利场 (杂志)_intext.xlsx
+++ b/xlsx/名利场 (杂志)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>名利场 (杂志)</t>
   </si>
@@ -29,13 +29,13 @@
     <t>康得纳斯出版公司</t>
   </si>
   <si>
-    <t>政策_政策_美國_名利场 (杂志)</t>
+    <t>政策_政策_美国_名利场 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISSN</t>
@@ -47,9 +47,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
   </si>
   <si>
@@ -77,7 +74,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AB%E7%9C%9F</t>
   </si>
   <si>
-    <t>寫真</t>
+    <t>写真</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%9B%E5%92%AA%C2%B7%E6%91%A9%E7%88%BE</t>
   </si>
   <si>
-    <t>黛咪·摩爾</t>
+    <t>黛咪·摩尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BD%E8%B0%A4</t>
@@ -696,7 +693,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>9</v>
@@ -722,10 +719,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -751,10 +748,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
@@ -780,10 +777,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -809,10 +806,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -838,10 +835,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -867,10 +864,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -896,10 +893,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -925,10 +922,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -954,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -983,10 +980,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -1012,10 +1009,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1041,10 +1038,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1070,10 +1067,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1099,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1128,10 +1125,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1157,10 +1154,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1186,10 +1183,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1215,10 +1212,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1244,10 +1241,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1273,10 +1270,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1302,10 +1299,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1331,10 +1328,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1360,10 +1357,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1389,10 +1386,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1418,10 +1415,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1447,10 +1444,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1476,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
